--- a/wwwroot/excel/_master/Template_StockIN.xlsx
+++ b/wwwroot/excel/_master/Template_StockIN.xlsx
@@ -126,7 +126,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -139,63 +141,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -211,25 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:J3" insertRow="1" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A2:J3"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Seq"/>
-    <tableColumn id="3" name="Category"/>
-    <tableColumn id="4" name="Product Code"/>
-    <tableColumn id="5" name="Product Type"/>
-    <tableColumn id="6" name="Model Name"/>
-    <tableColumn id="7" name="CPT Name"/>
-    <tableColumn id="8" name="Fixed Asset No."/>
-    <tableColumn id="9" name="Serial Number"/>
-    <tableColumn id="10" name="Qty"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -502,7 +435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +453,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -528,42 +461,39 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>